--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRightsFac.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRightsFac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D5562-1037-4425-9E66-DFC949A610EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4672B5E1-54FE-482D-BD07-94409D59E5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -266,18 +266,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>findChoiceDateEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChoiceDate = ,AND LastUpdateEmpNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo asc,CloseNo asc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -317,10 +305,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -967,7 +951,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -988,10 +972,10 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="9"/>
@@ -1016,7 +1000,7 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="18"/>
@@ -1029,7 +1013,7 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>42</v>
@@ -1040,14 +1024,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1072,7 +1056,7 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="18"/>
@@ -1182,17 +1166,17 @@
         <v>41</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="22">
         <v>8</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1200,13 +1184,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" s="16">
         <v>7</v>
@@ -1219,10 +1203,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>19</v>
@@ -1238,10 +1222,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>19</v>
@@ -1688,11 +1672,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1756,17 +1740,6 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1761,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRightsFac.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRightsFac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4672B5E1-54FE-482D-BD07-94409D59E5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8610C998-38B5-4233-A27C-6E2FCA1A9FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ClOtherRight(ClCode1,ClCode2,ClNo,Seq)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo,FacmNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -334,6 +330,22 @@
   <si>
     <t>ApproveNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClOtherRights(ClCode1,ClCode2,ClNo,Seq)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findClNoSeq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND Seq = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApproveNo ASC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -951,7 +963,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1025,7 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>42</v>
@@ -1024,14 +1036,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1056,7 +1068,7 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="18"/>
@@ -1166,17 +1178,17 @@
         <v>41</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="22">
         <v>8</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1184,13 +1196,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="E14" s="16">
         <v>7</v>
@@ -1206,7 +1218,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>19</v>
@@ -1222,10 +1234,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>19</v>
@@ -1672,11 +1684,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1740,6 +1752,17 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1784,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRightsFac.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRightsFac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8610C998-38B5-4233-A27C-6E2FCA1A9FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA80E5-BA8D-4529-A8F6-AB74CC386D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateDate</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   <si>
     <t>ApproveNo ASC</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -640,9 +640,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,9 +680,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,26 +715,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,26 +750,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -963,7 +929,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -980,14 +946,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="9"/>
@@ -997,10 +963,10 @@
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="12"/>
@@ -1008,11 +974,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="18"/>
@@ -1021,14 +987,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="12"/>
@@ -1036,14 +1002,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1051,11 +1017,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="18"/>
@@ -1064,11 +1030,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="18"/>
@@ -1077,7 +1043,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="13"/>
@@ -1088,7 +1054,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>4</v>
@@ -1114,20 +1080,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1135,20 +1101,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="17">
         <v>2</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1156,13 +1122,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="17">
         <v>7</v>
@@ -1175,20 +1141,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="22">
         <v>8</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1196,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="E14" s="16">
         <v>7</v>
@@ -1215,13 +1181,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="16">
         <v>7</v>
@@ -1234,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="16">
         <v>3</v>
@@ -1253,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="16"/>
@@ -1270,10 +1236,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>3</v>
@@ -1289,13 +1255,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="16"/>
@@ -1309,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>3</v>
@@ -1712,57 +1678,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1750,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
